--- a/wordcount.xlsx
+++ b/wordcount.xlsx
@@ -371,7 +371,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -384,7 +384,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>4524</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -409,10 +409,10 @@
       </c>
       <c r="B4">
         <f>SUM(C4:K4)</f>
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>48</v>
@@ -448,7 +448,7 @@
       </c>
       <c r="B6" s="1">
         <f>B1+(B2+B3)*250-B4-B5</f>
-        <v>5383</v>
+        <v>5380</v>
       </c>
     </row>
   </sheetData>
